--- a/application/controllers/excel-templates/Paytm_invoice_detail_template-v1-upcountry.xlsx
+++ b/application/controllers/excel-templates/Paytm_invoice_detail_template-v1-upcountry.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-aws/application/controllers/excel-templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/Excel Template new/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Upcountry" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,9 +35,6 @@
     <t>Blackmelon Advance Technology Co Pvt Ltd</t>
   </si>
   <si>
-    <t>92C/1, Street 7, East Azad Nagar, Delhi 110051</t>
-  </si>
-  <si>
     <t>GSTIN: 07AAFCB1281J1ZQ</t>
   </si>
   <si>
@@ -141,12 +138,15 @@
   </si>
   <si>
     <t>{booking:municipal_limit}</t>
+  </si>
+  <si>
+    <t>A-1/7a, A BLOCK, KRISHNA NAGAR, DELHI 110051</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -472,6 +472,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -742,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -812,14 +815,14 @@
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -829,14 +832,14 @@
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -846,14 +849,14 @@
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -889,14 +892,14 @@
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -906,14 +909,14 @@
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -923,14 +926,14 @@
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="25"/>
       <c r="F12" s="14"/>
       <c r="G12" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -953,7 +956,7 @@
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -981,67 +984,67 @@
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="D16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="F16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="23" t="s">
+      <c r="K16" s="24" t="s">
         <v>19</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1060,7 +1063,7 @@
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
       <c r="B19" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -1071,7 +1074,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/application/controllers/excel-templates/Paytm_invoice_detail_template-v1-upcountry.xlsx
+++ b/application/controllers/excel-templates/Paytm_invoice_detail_template-v1-upcountry.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/Excel Template new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around-adminp-aws\application\controllers\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8C5BE9-D044-466E-9333-A4B9CD1E0B6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7180" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Upcountry" sheetId="1" r:id="rId1"/>
@@ -140,13 +141,13 @@
     <t>{booking:municipal_limit}</t>
   </si>
   <si>
-    <t>A-1/7a, A BLOCK, KRISHNA NAGAR, DELHI 110051</t>
+    <t>A-1/7, F/F A BLOCK, KRISHNA NAGAR, DELHI, 110051</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -465,7 +466,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -742,21 +743,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -769,7 +770,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="31.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="26" t="s">
         <v>0</v>
@@ -784,7 +785,7 @@
       <c r="J2" s="27"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
@@ -797,7 +798,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>1</v>
@@ -812,7 +813,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>36</v>
@@ -829,7 +830,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>3</v>
@@ -846,7 +847,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -863,7 +864,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
@@ -876,7 +877,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9"/>
@@ -889,7 +890,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>7</v>
@@ -906,7 +907,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
         <v>9</v>
@@ -923,7 +924,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="29" t="s">
         <v>11</v>
@@ -940,7 +941,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="31"/>
       <c r="C13" s="30"/>
@@ -953,7 +954,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
         <v>13</v>
@@ -968,7 +969,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="14"/>
@@ -981,7 +982,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="21" t="s">
         <v>14</v>
@@ -1014,7 +1015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
         <v>20</v>
@@ -1047,7 +1048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -1060,7 +1061,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="18" t="s">
         <v>27</v>
